--- a/test/fixtures/files/upload_single_page/04_combo_update_assay_samples_spreadsheet.xlsx
+++ b/test/fixtures/files/upload_single_page/04_combo_update_assay_samples_spreadsheet.xlsx
@@ -365,7 +365,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.06"/>
@@ -465,11 +465,11 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.06"/>

--- a/test/fixtures/files/upload_single_page/04_combo_update_assay_samples_spreadsheet.xlsx
+++ b/test/fixtures/files/upload_single_page/04_combo_update_assay_samples_spreadsheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t xml:space="preserve">Study:</t>
   </si>
@@ -77,7 +77,32 @@
     <t xml:space="preserve">2f47acd0-03b6-013c-3f44-7404f157af6c</t>
   </si>
   <si>
-    <t xml:space="preserve">[{"id":10021,"type":"Sample","title":"Source Name"},{"id":10022,"type":"Sample","title":"Source Name"}]</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[{"id":10021,"type":"Sample","title":"sample nr. 1"},{"id":10022,"type":"Sample","title":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">sample nr. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2"}]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Extract nr. 1</t>
@@ -95,7 +120,49 @@
     <t xml:space="preserve">2f561330-03b6-013c-3f44-7404f157af6c</t>
   </si>
   <si>
-    <t xml:space="preserve">[{"id":10022,"type":"Sample","title":"Source Name"},{"id":10023,"type":"Sample","title":"Source Name"}]</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[{"id":10022,"type":"Sample","title":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">sample nr. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2"},{"id":10023,"type":"Sample","title":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">sample nr. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3"}]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Extract nr. 2</t>
@@ -107,16 +174,145 @@
     <t xml:space="preserve">2f65f410-03b6-013c-3f44-7404f157af6c</t>
   </si>
   <si>
-    <t xml:space="preserve">[{"id":10023,"type":"Sample","title":"Source Name"},{"id":10024,"type":"Sample","title":"Source Name"}]</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[{"id":10023,"type":"Sample","title":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">sample nr.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 3"},{"id":10024,"type":"Sample","title":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">sample nr.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 4"}]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Extract nr. 3</t>
   </si>
   <si>
-    <t xml:space="preserve">[{"id":10021,"type":"Sample","title":"Source Name"},{"id":10023,"type":"Sample","title":"Source Name"}]</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[{"id":10021,"type":"Sample","title":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">sample nr.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1"},{"id":10023,"type":"Sample","title":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">sample nr.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 3"}]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Extract nr. 4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[{"id":10021,"type":"Sample","title":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">sample nr.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1"},{"id":10022,"type":"Sample","title":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">sample nr.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2"}]</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -126,7 +322,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -162,6 +358,11 @@
       <name val="Arial"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -365,7 +566,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.06"/>
@@ -465,11 +666,11 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.06"/>
@@ -625,7 +826,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>19</v>
